--- a/99-0thers/case_collector/第一季度案例收集/xxxxxx案例信息-调研模板-20240529.xlsx
+++ b/99-0thers/case_collector/第一季度案例收集/xxxxxx案例信息-调研模板-20240529.xlsx
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -772,7 +772,7 @@
     </r>
   </si>
   <si>
-    <t>xxxxxx</t>
+    <t>测试银行</t>
   </si>
   <si>
     <t>300-400</t>
@@ -830,13 +830,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -938,7 +931,7 @@
     <t>数据交换平台，外部数据管理平台，调度平台，数据补录平台，数据开发平台</t>
   </si>
   <si>
-    <t>腾讯的wedata（客户自己直采）</t>
+    <t>腾讯的wedata（客户自己直采）1111</t>
   </si>
   <si>
     <t>数据管理类
@@ -1171,9 +1164,6 @@
   </si>
   <si>
     <t>中间件版本号</t>
-  </si>
-  <si>
-    <t>xxxx1</t>
   </si>
   <si>
     <r>
@@ -1594,12 +1584,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2676,8 +2666,8 @@
   </sheetPr>
   <dimension ref="A1:N1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="$A35:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -3428,50 +3418,22 @@
       </c>
     </row>
     <row r="35" s="4" customFormat="1" spans="1:13">
-      <c r="A35" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>41</v>
-      </c>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
     </row>
     <row r="36" s="4" customFormat="1" spans="1:13">
-      <c r="A36" s="36" t="s">
-        <v>27</v>
-      </c>
+      <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" s="36"/>
@@ -3607,7 +3569,7 @@
     </row>
     <row r="45" s="5" customFormat="1" ht="45" customHeight="1" spans="1:13">
       <c r="A45" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -3624,66 +3586,66 @@
     </row>
     <row r="46" s="3" customFormat="1" ht="32.25" customHeight="1" spans="1:13">
       <c r="A46" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
       <c r="D46" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="41"/>
       <c r="H46" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="M46" s="38" t="s">
         <v>103</v>
-      </c>
-      <c r="M46" s="38" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" ht="36" spans="1:13">
       <c r="A47" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="D47" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="E47" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="F47" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="H47" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="I47" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="J47" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="K47" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="L47" s="38"/>
       <c r="M47" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" s="6" customFormat="1" ht="30" customHeight="1" spans="1:13">
@@ -3697,16 +3659,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="F48" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="G48" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="H48" s="36" t="s">
         <v>41</v>
